--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -5,19 +5,28 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
+    <sheet name="Summery" sheetId="2" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Catagory</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
   <si>
     <t>RuleName</t>
@@ -29,6 +38,9 @@
     <t>Message</t>
   </si>
   <si>
+    <t>ScriptAnalyzer</t>
+  </si>
+  <si>
     <t>Get-CTXAPI_HealthCheck.ps1</t>
   </si>
   <si>
@@ -44,7 +56,34 @@
     <t>PSUseOutputTypeCorrectly</t>
   </si>
   <si>
-    <t>The cmdlet 'Test-CTXAPI_Headers' returns an object of type 'System.Boolean' but this type is not declared in the OutputType attribute.</t>
+    <t>The cmdlet 'Test-CTXAPI_Header' returns an object of type 'System.Boolean' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_FailureReport</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Test-CTXAPI_Headers</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Export-Odata</t>
+  </si>
+  <si>
+    <t>Reports-Colors</t>
+  </si>
+  <si>
+    <t>Reports-Variables</t>
   </si>
 </sst>
 </file>
@@ -52,8 +91,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -78,8 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,92 +134,285 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E5" sheet="ScriptAnalyzer"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Catagory" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="File" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="RuleName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="line" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Message" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Summery" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" createdVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" indent="0" compact="0" compactData="0" gridDropZones="1" rowGrandTotals="1" colGrandTotals="1">
+  <location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" axis="axisRow">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" dataField="1"/>
+  </pivotFields>
+  <rowFields>
+    <field x="2"/>
+  </rowFields>
+  <dataFields>
+    <dataField fld="4" subtotal="count" name="Count of Message"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
+    <col min="2" max="2" width="27.211336135864258" customWidth="1"/>
+    <col min="3" max="3" width="38.72081756591797" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="118.78999328613281" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0">
+        <v>125</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>81</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0">
+        <v>83</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0">
+        <v>85</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.211336135864258" customWidth="1"/>
-    <col min="2" max="2" width="38.72081756591797" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="119.63402557373047" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="24.505327224731445" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0">
-        <v>125</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0">
-        <v>81</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
-        <v>83</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
+        <f>&gt;</f>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
-        <v>85</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0">
+        <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Catagory</t>
   </si>
@@ -50,7 +50,7 @@
     <t>The variable 'machinecount' is assigned but never used.</t>
   </si>
   <si>
-    <t>Test-CTXAPI_Headers.ps1</t>
+    <t>Test-CTXAPI_Header.ps1</t>
   </si>
   <si>
     <t>PSUseOutputTypeCorrectly</t>
@@ -60,18 +60,6 @@
   </si>
   <si>
     <t>details</t>
-  </si>
-  <si>
-    <t>External Help</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_FailureReport</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Test-CTXAPI_Headers</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -250,7 +238,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
@@ -267,7 +255,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>11</v>
@@ -284,7 +272,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>11</v>
@@ -309,7 +297,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -318,9 +306,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="24.505327224731445" customWidth="1"/>
-    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
+    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
+    <col min="2" max="2" width="16.995006561279297" customWidth="1"/>
+    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -341,8 +329,8 @@
       <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
+      <c r="C2" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="3">
@@ -350,69 +338,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -96,9 +96,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
-    <col min="2" max="2" width="16.995006561279297" customWidth="1"/>
-    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="16.9950065612793" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,6 +24,39 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Machine.md</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Machine.md - ### -Name - {{ Fill Name Description }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get-CTXAPI_VDAUptime.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ### -APIHeader - {{ Fill APIHeader Description }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ### -Export - {{ Fill Export Description }}</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime.md - ### -ReportPath - {{ Fill ReportPath Description }}</t>
   </si>
 </sst>
 </file>
@@ -75,7 +108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -84,9 +117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="26.2772789001465" customWidth="1"/>
+    <col min="3" max="3" width="72.2681503295898" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -100,8 +133,96 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C10"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,34 +29,64 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Get-CTXAPI_Machine.md</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_Machine.md - ### -Name - {{ Fill Name Description }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-CTXAPI_VDAUptime.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ### -APIHeader - {{ Fill APIHeader Description }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ### -Export - {{ Fill Export Description }}</t>
-  </si>
-  <si>
-    <t>Get-CTXAPI_VDAUptime.md - ### -ReportPath - {{ Fill ReportPath Description }}</t>
+    <t>Connect-CTXAPI</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Application</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_CloudService</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_ConfigLog</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_DeliveryGroup</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Hypervisor</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_LowLevelOperation</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Machine</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_MachineCatalog</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_MonitorData</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_ResourceLocation</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Session</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_SiteDetail</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_VDAUptime</t>
+  </si>
+  <si>
+    <t>Get-CTXAPI_Zone</t>
+  </si>
+  <si>
+    <t>New-CTXAPI_Machine</t>
+  </si>
+  <si>
+    <t>New-CTXAPI_Report</t>
+  </si>
+  <si>
+    <t>Set-CTXAPI_MachinePowerState</t>
+  </si>
+  <si>
+    <t>Test-CTXAPI_Header</t>
   </si>
 </sst>
 </file>
@@ -108,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -118,8 +148,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="26.2772789001465" customWidth="1"/>
-    <col min="3" max="3" width="72.2681503295898" customWidth="1"/>
+    <col min="2" max="2" width="29.9633808135986" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,12 +163,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -149,10 +190,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -160,10 +201,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -171,10 +212,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -182,10 +223,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -193,10 +234,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -204,10 +245,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -215,14 +256,124 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C10"/>
+  <autoFilter ref="A1:C21"/>
   <headerFooter/>
 </worksheet>
 </file>